--- a/file/stock2.xlsx
+++ b/file/stock2.xlsx
@@ -361,7 +361,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B32" sqref="B32"/>
@@ -837,6 +837,117 @@
       <c r="G14" t="inlineStr">
         <is>
           <t>0.870%</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>6.38</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>6.74</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>6.70</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.96</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>-8.333%</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>6.59</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>6.68</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>6.32</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>6.55</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>6.38</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>3.292%</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>7.25</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>7.25</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>6.70</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>6.76</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>6.59</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>10.015%</t>
         </is>
       </c>
     </row>
@@ -855,7 +966,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1:H1"/>
@@ -1230,6 +1341,117 @@
       <c r="G11" t="inlineStr">
         <is>
           <t>-0.379%</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>14.72</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>15.47</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>14.56</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>15.20</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>15.77</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>-6.658%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>15.06</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>15.25</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>14.51</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>15.08</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>14.72</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>2.310%</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>15.44</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>15.55</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>15.18</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>15.46</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>15.06</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>2.523%</t>
         </is>
       </c>
     </row>
@@ -1247,7 +1469,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1:G1"/>
@@ -1558,6 +1780,117 @@
       <c r="G9" t="inlineStr">
         <is>
           <t>3.846%</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>8.67</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>9.75</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>8.55</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>9.49</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>9.45</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>-8.254%</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>8.37</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>8.94</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>8.03</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>8.79</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>8.67</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>-3.460%</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>8.97</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>9.16</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>8.30</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>8.58</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>8.37</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>7.169%</t>
         </is>
       </c>
     </row>
@@ -1575,7 +1908,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1:G1"/>
@@ -1849,6 +2182,117 @@
       <c r="G8" t="inlineStr">
         <is>
           <t>2.070%</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>5.78</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>6.20</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>6.20</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.41</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>-9.828%</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>6.27</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>6.36</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>5.89</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.78</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>8.478%</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>6.45</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>6.53</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>6.27</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>6.31</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.27</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2.871%</t>
         </is>
       </c>
     </row>
@@ -1866,7 +2310,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1:G1"/>
@@ -2140,6 +2584,117 @@
       <c r="G8" t="inlineStr">
         <is>
           <t>0.000%</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>6.67</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>6.97</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>6.63</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>6.79</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.97</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>-4.304%</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>6.92</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>6.97</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>6.66</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>6.82</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.67</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>3.748%</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>7.01</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>7.13</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>6.94</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>7.09</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.92</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.301%</t>
         </is>
       </c>
     </row>
@@ -2157,7 +2712,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
@@ -2360,6 +2915,117 @@
         </is>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>9.03</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>10.45</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>9.03</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>10.30</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>10.03</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>-9.970%</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>8.63</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>9.08</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>8.27</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>8.87</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>9.03</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>-4.430%</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>9.42</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>9.49</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>8.42</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>8.72</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>8.63</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>9.154%</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:G1"/>

--- a/file/stock2.xlsx
+++ b/file/stock2.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="5" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12990" windowWidth="25230" xWindow="1365" yWindow="1500"/>
+    <workbookView activeTab="1" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12990" windowWidth="25230" xWindow="1365" yWindow="1500"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="600223" sheetId="1" state="visible" r:id="rId1"/>
@@ -12,6 +12,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="000009" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="002467" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="000652" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="600127" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -361,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B32" sqref="B32"/>
@@ -948,6 +949,524 @@
       <c r="G17" t="inlineStr">
         <is>
           <t>10.015%</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>6.84</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>7.18</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>6.80</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>7.18</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>7.25</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>-5.655%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>7.25</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>7.52</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>6.98</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>7.02</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>6.84</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>5.994%</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>6.94</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>7.05</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>6.64</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>6.98</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>7.25</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>-4.276%</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>6.70</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>7.05</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>6.70</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>7.05</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>6.94</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>-3.458%</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>6.71</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>6.84</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>6.61</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>6.61</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>6.70</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.149%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>6.86</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>6.87</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>6.60</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>6.63</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>6.71</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>2.236%</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>6.78</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>6.93</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>6.71</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>6.82</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>6.86</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>-1.166%</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>2020-04-06</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>6.78</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>6.93</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>6.71</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>6.82</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>6.86</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>-1.166%</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>2020-04-07</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>7.12</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>7.20</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>6.85</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>6.91</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>6.78</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>5.015%</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>2020-04-08</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>7.29</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>7.52</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>7.03</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>7.09</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>7.12</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>2.388%</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>2020-04-09</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>7.21</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>7.44</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>7.07</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>7.30</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>7.29</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>-1.097%</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>2020-04-10</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>7.02</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>7.39</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>6.95</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>7.23</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>7.21</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>-2.635%</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>2020-04-13</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>6.76</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>6.94</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>6.72</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>6.91</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>7.02</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>-3.704%</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>2020-04-14</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>6.85</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>6.86</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>6.75</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>6.80</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>6.76</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>1.331%</t>
         </is>
       </c>
     </row>
@@ -966,10 +1485,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:H1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5"/>
@@ -1455,11 +1974,530 @@
         </is>
       </c>
     </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>15.12</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>15.58</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>15.10</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>15.34</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>15.44</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>-2.073%</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>14.98</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>15.49</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>14.95</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>15.34</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>15.12</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>-0.926%</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>14.45</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>14.79</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>13.91</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>14.63</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>14.98</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>-3.538%</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>14.29</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>14.69</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>14.23</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>14.63</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>14.45</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>-1.107%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>14.44</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>14.68</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>14.11</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>14.20</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>14.29</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>1.050%</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>14.94</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>15.18</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>14.35</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>14.45</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>14.44</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>3.463%</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>14.84</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>15.13</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>14.69</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>14.97</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>14.94</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>-0.669%</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>2020-04-06</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>14.84</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>15.13</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>14.69</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>14.97</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>14.94</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>-0.669%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>2020-04-07</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>16.32</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>16.32</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>15.24</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>15.30</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>14.84</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>9.973%</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>2020-04-08</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>16.88</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>17.20</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>15.98</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>16.02</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>16.32</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>3.431%</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>2020-04-09</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>16.95</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>17.62</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>16.68</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>16.69</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>16.88</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.415%</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>2020-04-10</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>16.52</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>17.27</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>16.41</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>16.72</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>16.95</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>-2.537%</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>2020-04-13</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>17.14</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>17.28</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>16.11</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>16.31</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>16.52</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>3.753%</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>2020-04-14</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>17.18</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>17.48</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>16.81</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>17.23</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>17.14</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.233%</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:H1"/>
   </mergeCells>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" verticalDpi="300"/>
 </worksheet>
 </file>
 
@@ -1469,7 +2507,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1:G1"/>
@@ -1891,6 +2929,524 @@
       <c r="G12" t="inlineStr">
         <is>
           <t>7.169%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>8.66</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>9.17</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>8.54</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>8.94</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>8.97</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>-3.456%</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>8.63</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>8.93</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>8.44</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>8.78</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>8.66</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>-0.346%</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>8.84</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>9.18</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>8.66</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>8.72</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>8.63</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>2.433%</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>8.36</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>8.57</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>8.14</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>8.42</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>8.84</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>-5.430%</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>8.13</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>8.47</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>8.02</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>8.33</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>8.36</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>-2.751%</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>8.33</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>8.39</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>7.88</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>8.25</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>8.13</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>2.460%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>8.98</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>9.01</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>8.25</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>8.32</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>8.33</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>7.803%</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2020-04-06</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>8.98</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>9.01</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>8.25</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>8.32</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>8.33</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>7.803%</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>2020-04-07</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>9.23</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>9.50</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>8.75</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>9.19</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>8.98</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>2.784%</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>2020-04-08</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>8.98</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>9.32</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>8.82</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>9.00</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>9.23</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>-2.709%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>2020-04-09</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>9.11</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>9.23</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>8.69</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>8.75</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>8.98</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>1.448%</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>2020-04-10</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>8.83</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>9.26</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>8.81</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>9.04</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>9.11</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>-3.074%</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>2020-04-13</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>9.71</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>9.71</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>8.95</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>9.05</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>8.83</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>9.966%</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>2020-04-14</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>10.17</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>10.59</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>9.72</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>9.80</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>9.71</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>4.737%</t>
         </is>
       </c>
     </row>
@@ -1908,7 +3464,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1:G1"/>
@@ -2293,6 +3849,524 @@
       <c r="G11" t="inlineStr">
         <is>
           <t>2.871%</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>6.15</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>6.40</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>6.39</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.45</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>-4.651%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>6.07</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>6.29</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>6.06</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>6.29</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>6.15</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>-1.301%</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>6.03</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.07</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>-2.306%</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>5.88</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>5.88</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>-0.843%</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>6.07</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>6.28</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.88</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>3.231%</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>6.28</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>6.28</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>5.98</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>6.07</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>3.460%</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>6.36</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>6.48</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>6.32</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>6.28</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>1.274%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2020-04-06</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>6.36</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>6.48</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>6.32</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>6.28</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>1.274%</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2020-04-07</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>6.48</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>6.54</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>6.37</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>6.46</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>6.36</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>1.887%</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>2020-04-08</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>6.37</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>6.46</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>6.34</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>6.39</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>6.48</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>-1.698%</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>2020-04-09</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>6.39</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>6.49</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>6.38</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>6.43</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>6.37</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.314%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>2020-04-10</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>6.18</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>6.44</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>6.44</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>6.39</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>-3.286%</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>2020-04-13</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>6.03</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>6.14</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>5.98</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>6.18</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>-2.427%</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>2020-04-14</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>6.34</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>6.37</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>6.03</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>5.141%</t>
         </is>
       </c>
     </row>
@@ -2310,7 +4384,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1:G1"/>
@@ -2695,6 +4769,524 @@
       <c r="G11" t="inlineStr">
         <is>
           <t>1.301%</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>6.80</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>7.02</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>6.78</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>6.98</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7.01</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>-2.996%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>6.70</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>6.90</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>6.69</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>6.88</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>6.80</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>-1.471%</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>6.39</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>6.64</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>6.33</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>6.61</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.70</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>-4.627%</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>6.34</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>6.52</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>6.32</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>6.49</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.39</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>-0.783%</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>6.38</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>6.51</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>6.27</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>6.33</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>6.34</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.631%</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>6.66</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>6.66</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>6.33</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>6.38</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>6.38</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>4.389%</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>6.62</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>6.75</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>6.53</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>6.62</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>6.66</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>-0.601%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2020-04-06</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>6.62</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>6.75</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>6.53</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>6.62</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>6.66</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>-0.601%</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2020-04-07</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>6.99</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>7.03</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>6.73</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>6.78</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>6.62</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>5.589%</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>2020-04-08</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>7.08</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>7.22</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>6.90</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>6.98</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>6.99</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>1.288%</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>2020-04-09</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>7.79</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>7.79</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>7.26</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>7.26</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>7.08</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>10.028%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>2020-04-10</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>7.51</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>8.27</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>7.50</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>8.10</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>7.79</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>-3.594%</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>2020-04-13</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>6.76</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>7.07</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>6.76</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>6.80</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>7.51</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>-9.987%</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>2020-04-14</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>7.20</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>7.27</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>6.81</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>6.88</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>6.76</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>6.509%</t>
         </is>
       </c>
     </row>
@@ -2712,9 +5304,9 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
@@ -3026,10 +5618,924 @@
         </is>
       </c>
     </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>9.06</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>9.68</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>8.81</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>9.16</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>9.42</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>-3.822%</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>9.32</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>9.65</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>8.96</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>9.06</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>9.06</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2.870%</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>9.87</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>10.19</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>9.35</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>9.49</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>9.32</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>5.901%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>9.28</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>9.81</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>9.23</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>9.62</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>9.87</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>-5.978%</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>8.74</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>9.13</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>8.60</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>8.99</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>9.28</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>-5.819%</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>9.09</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>9.25</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>8.47</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>8.89</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>8.74</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>4.005%</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>9.94</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>9.98</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>8.90</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>9.08</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>9.09</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>9.351%</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2020-04-06</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>9.94</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>9.98</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>8.90</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>9.08</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>9.09</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>9.351%</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2020-04-07</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>10.48</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>10.82</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>9.60</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>10.20</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>9.94</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>5.433%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2020-04-08</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>10.33</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>10.98</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>9.80</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>10.27</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>10.48</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>-1.431%</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2020-04-09</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>9.87</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>10.23</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>9.73</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>9.82</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>10.33</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>-4.453%</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>2020-04-10</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>9.85</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>10.15</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>9.75</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>9.85</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>9.87</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>-0.203%</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>2020-04-13</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>10.26</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>10.54</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>9.75</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>9.92</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>9.85</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>4.162%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>2020-04-14</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>10.08</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>10.31</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>9.90</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>10.23</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>10.26</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>-1.754%</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:G1"/>
   </mergeCells>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>600127</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>当前</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>最高</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>最低</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>今开</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>昨收</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>幅度</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>8.97</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>8.97</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>8.00</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>8.32</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.15</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>10.061%</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>9.87</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>9.87</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>8.50</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>8.93</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.97</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>10.033%</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2020-04-06</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>9.87</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>9.87</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>8.50</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>8.93</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.97</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>10.033%</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2020-04-07</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>10.86</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>10.86</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>9.40</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>9.75</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>9.87</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>10.030%</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2020-04-08</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>11.30</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>11.87</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>10.33</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>11.50</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>10.86</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>4.052%</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2020-04-09</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>10.95</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>11.25</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>10.43</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>11.00</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>11.30</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>-3.097%</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2020-04-10</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>10.43</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>11.56</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>10.35</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>10.80</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>10.95</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>-4.749%</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2020-04-13</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>9.39</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>10.72</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>9.39</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>10.65</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>10.43</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>-9.971%</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2020-04-14</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>10.33</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>10.33</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>8.45</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>8.45</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>9.39</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>10.011%</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
 </file>
--- a/file/stock2.xlsx
+++ b/file/stock2.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B32" sqref="B32"/>
@@ -1467,6 +1467,117 @@
       <c r="G31" t="inlineStr">
         <is>
           <t>1.331%</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>2020-04-15</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>6.69</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>6.86</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>6.68</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>6.84</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>6.85</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>-2.336%</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>2020-04-16</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>6.74</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>6.78</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>6.57</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>6.65</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>6.69</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.747%</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>2020-04-17</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>6.68</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>6.86</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>6.67</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>6.78</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>6.74</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>-0.890%</t>
         </is>
       </c>
     </row>
@@ -1485,7 +1596,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H28"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C20" sqref="C20"/>
@@ -2489,6 +2600,117 @@
       <c r="G28" t="inlineStr">
         <is>
           <t>0.233%</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>2020-04-15</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>16.79</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>17.34</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>16.71</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>16.98</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>17.18</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>-2.270%</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>2020-04-16</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>16.65</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>16.90</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>16.42</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>16.50</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>16.79</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>-0.834%</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>2020-04-17</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>16.30</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>16.91</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>16.26</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>16.80</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>16.65</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>-2.102%</t>
         </is>
       </c>
     </row>
@@ -2507,7 +2729,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1:G1"/>
@@ -3447,6 +3669,117 @@
       <c r="G26" t="inlineStr">
         <is>
           <t>4.737%</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>2020-04-15</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>11.19</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>11.19</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>10.25</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>10.42</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>10.17</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>10.030%</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>2020-04-16</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>10.90</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>12.13</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>10.71</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>11.70</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>11.19</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>-2.592%</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>2020-04-17</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>11.60</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>11.86</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>10.63</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>10.63</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>10.90</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>6.422%</t>
         </is>
       </c>
     </row>
@@ -3464,7 +3797,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1:G1"/>
@@ -4367,6 +4700,117 @@
       <c r="G25" t="inlineStr">
         <is>
           <t>5.141%</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>2020-04-15</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>6.30</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>6.46</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>6.29</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>6.39</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>6.34</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>-0.631%</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>2020-04-16</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>6.29</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>6.22</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>6.30</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>-0.159%</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>2020-04-17</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>6.43</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>6.66</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>6.33</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>6.29</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>2.226%</t>
         </is>
       </c>
     </row>
@@ -4384,7 +4828,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1:G1"/>
@@ -5287,6 +5731,117 @@
       <c r="G25" t="inlineStr">
         <is>
           <t>6.509%</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>2020-04-15</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>7.02</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>7.29</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>7.00</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>7.10</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>7.20</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>-2.500%</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>2020-04-16</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>7.03</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>7.10</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>6.92</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>6.98</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>7.02</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.143%</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>2020-04-17</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>7.02</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>7.22</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>7.00</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>7.07</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>7.03</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>-0.142%</t>
         </is>
       </c>
     </row>
@@ -5304,7 +5859,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
@@ -6133,6 +6688,117 @@
       <c r="G23" t="inlineStr">
         <is>
           <t>-1.754%</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>2020-04-15</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>9.81</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>10.17</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>9.65</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>9.81</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>10.08</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>-2.679%</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>2020-04-16</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>9.28</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>9.69</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>9.20</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>9.69</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>9.81</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>-5.403%</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>2020-04-17</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>9.42</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>9.58</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>9.15</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>9.28</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>9.28</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>1.509%</t>
         </is>
       </c>
     </row>
@@ -6150,7 +6816,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6535,6 +7201,117 @@
         </is>
       </c>
     </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2020-04-15</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>9.67</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>10.46</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>9.50</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>9.79</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>10.33</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>-6.389%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2020-04-16</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>9.32</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>9.93</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>9.18</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>9.48</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>9.67</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>-3.619%</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2020-04-17</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>9.10</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>9.55</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>8.90</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>9.20</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>9.32</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>-2.361%</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/file/stock2.xlsx
+++ b/file/stock2.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G34"/>
+  <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B32" sqref="B32"/>
@@ -1578,6 +1578,80 @@
       <c r="G34" t="inlineStr">
         <is>
           <t>-0.890%</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>2020-04-20</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>6.77</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>6.85</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>6.59</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>6.65</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>6.68</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>1.347%</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>2020-04-21</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>6.57</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>6.76</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>6.52</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>6.76</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>6.77</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>-2.954%</t>
         </is>
       </c>
     </row>
@@ -1596,7 +1670,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C20" sqref="C20"/>
@@ -2711,6 +2785,80 @@
       <c r="G31" t="inlineStr">
         <is>
           <t>-2.102%</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>2020-04-20</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>17.93</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>17.93</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>16.37</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>16.37</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>16.30</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>10.000%</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>2020-04-21</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>19.08</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>19.57</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>18.60</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>19.00</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>17.93</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>6.414%</t>
         </is>
       </c>
     </row>
@@ -2729,7 +2877,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G29"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1:G1"/>
@@ -3780,6 +3928,80 @@
       <c r="G29" t="inlineStr">
         <is>
           <t>6.422%</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>2020-04-20</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>11.10</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>11.57</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>10.44</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>11.30</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>11.60</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>-4.310%</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>2020-04-21</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>10.56</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>11.23</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>10.52</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>10.96</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>11.10</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>-4.865%</t>
         </is>
       </c>
     </row>
@@ -3797,7 +4019,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1:G1"/>
@@ -4811,6 +5033,80 @@
       <c r="G28" t="inlineStr">
         <is>
           <t>2.226%</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>2020-04-20</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>6.47</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>6.58</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>6.34</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>6.49</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>6.43</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.622%</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>2020-04-21</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>6.30</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>6.45</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>6.20</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>6.45</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>6.47</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>-2.628%</t>
         </is>
       </c>
     </row>
@@ -4828,7 +5124,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1:G1"/>
@@ -5842,6 +6138,80 @@
       <c r="G28" t="inlineStr">
         <is>
           <t>-0.142%</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>2020-04-20</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>7.12</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>7.14</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>6.87</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>6.96</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>7.02</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>1.425%</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>2020-04-21</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>7.41</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>7.60</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>7.20</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>7.21</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>7.12</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>4.073%</t>
         </is>
       </c>
     </row>
@@ -5859,7 +6229,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
@@ -6799,6 +7169,80 @@
       <c r="G26" t="inlineStr">
         <is>
           <t>1.509%</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>2020-04-20</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>9.35</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>9.46</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>9.16</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>9.30</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>9.42</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>-0.743%</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>2020-04-21</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>9.24</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>9.60</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>9.16</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>9.26</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>9.35</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>-1.177%</t>
         </is>
       </c>
     </row>
@@ -6816,7 +7260,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7312,6 +7756,80 @@
         </is>
       </c>
     </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2020-04-20</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>9.41</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>9.53</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>9.12</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>9.31</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>9.10</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>3.407%</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2020-04-21</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>10.22</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>10.35</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>8.96</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>9.17</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>9.41</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>8.608%</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/file/stock2.xlsx
+++ b/file/stock2.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G36"/>
+  <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B32" sqref="B32"/>
@@ -1652,6 +1652,43 @@
       <c r="G36" t="inlineStr">
         <is>
           <t>-2.954%</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>2020-04-22</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>6.84</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>6.98</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>6.45</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>6.48</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>6.57</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>4.110%</t>
         </is>
       </c>
     </row>
@@ -1670,7 +1707,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H33"/>
+  <dimension ref="A1:H34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C20" sqref="C20"/>
@@ -2859,6 +2896,43 @@
       <c r="G33" t="inlineStr">
         <is>
           <t>6.414%</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>2020-04-22</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>19.33</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>19.73</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>18.70</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>18.87</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>19.08</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>1.310%</t>
         </is>
       </c>
     </row>
@@ -2877,7 +2951,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1:G1"/>
@@ -4002,6 +4076,43 @@
       <c r="G31" t="inlineStr">
         <is>
           <t>-4.865%</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>2020-04-22</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>10.36</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>10.64</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>10.20</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>10.63</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>10.56</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>-1.894%</t>
         </is>
       </c>
     </row>
@@ -4019,7 +4130,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1:G1"/>
@@ -5107,6 +5218,43 @@
       <c r="G30" t="inlineStr">
         <is>
           <t>-2.628%</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>2020-04-22</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>6.28</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>6.29</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>6.19</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>6.22</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>6.30</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>-0.318%</t>
         </is>
       </c>
     </row>
@@ -5124,7 +5272,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1:G1"/>
@@ -6212,6 +6360,43 @@
       <c r="G30" t="inlineStr">
         <is>
           <t>4.073%</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>2020-04-22</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>7.28</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>7.34</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>7.13</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>7.20</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>7.41</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>-1.754%</t>
         </is>
       </c>
     </row>
@@ -6229,7 +6414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
@@ -7243,6 +7428,43 @@
       <c r="G28" t="inlineStr">
         <is>
           <t>-1.177%</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>2020-04-22</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>8.97</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>9.22</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>8.82</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>9.13</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>9.24</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>-2.922%</t>
         </is>
       </c>
     </row>
@@ -7260,7 +7482,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7830,6 +8052,43 @@
         </is>
       </c>
     </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2020-04-22</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>11.24</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>11.24</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>9.39</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>9.74</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>10.22</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>9.980%</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/file/stock2.xlsx
+++ b/file/stock2.xlsx
@@ -366,7 +366,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G43"/>
+  <dimension ref="A1:G47"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="F39" sqref="F27:F39"/>
@@ -1915,6 +1915,154 @@
       <c r="G43" t="inlineStr">
         <is>
           <t>2.289%</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>2020-05-04</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>7.15</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>7.25</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>7.02</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>7.16</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>6.99</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>2.289%</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>2020-05-05</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>7.15</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>7.25</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>7.02</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>7.16</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>6.99</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>2.289%</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>2020-05-06</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>7.21</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>7.26</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>7.07</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>7.08</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>7.15</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.839%</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>2020-05-07</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>7.93</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>7.93</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>7.14</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>7.21</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>7.21</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>9.986%</t>
         </is>
       </c>
     </row>
@@ -1933,7 +2081,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2130,6 +2278,154 @@
       <c r="G6" t="inlineStr">
         <is>
           <t>3.185%</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2020-05-04</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>3.185%</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2020-05-05</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>3.185%</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2020-05-06</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>10.082%</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2020-05-07</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.748%</t>
         </is>
       </c>
     </row>
@@ -2144,7 +2440,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2341,6 +2637,154 @@
       <c r="G6" t="inlineStr">
         <is>
           <t>-2.778%</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2020-05-04</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>8.75</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>9.21</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>8.75</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>9.16</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>9.00</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>-2.778%</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2020-05-05</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>8.75</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>9.21</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>8.75</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>9.16</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>9.00</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>-2.778%</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2020-05-06</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>8.96</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>9.02</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>8.68</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>8.81</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>8.75</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2.400%</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2020-05-07</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>8.79</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>9.10</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>8.73</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>8.89</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>8.96</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>-1.897%</t>
         </is>
       </c>
     </row>
@@ -2355,7 +2799,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H40"/>
+  <dimension ref="A1:H44"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="G33" sqref="G33"/>
@@ -3803,6 +4247,154 @@
       <c r="G40" t="inlineStr">
         <is>
           <t>4.997%</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>2020-05-04</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>17.02</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>17.30</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>16.22</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>16.22</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>16.21</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>4.997%</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>2020-05-05</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>17.02</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>17.30</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>16.22</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>16.22</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>16.21</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>4.997%</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>2020-05-06</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>17.41</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>17.45</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>16.65</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>17.04</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>17.02</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>2.291%</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>2020-05-07</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>17.40</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>17.85</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>17.16</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>17.32</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>17.41</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>-0.057%</t>
         </is>
       </c>
     </row>
@@ -8648,7 +9240,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="J9" sqref="J9"/>
@@ -9477,6 +10069,154 @@
       <c r="G23" t="inlineStr">
         <is>
           <t>-2.124%</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>2020-05-04</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>10.14</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>10.54</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>9.81</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>10.03</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>10.36</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>-2.124%</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>2020-05-05</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>10.14</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>10.54</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>9.81</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>10.03</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>10.36</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>-2.124%</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>2020-05-06</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>10.29</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>10.58</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>9.83</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>10.00</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>10.14</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>1.479%</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>2020-05-07</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>10.37</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>10.69</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>9.91</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>10.08</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>10.29</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.778%</t>
         </is>
       </c>
     </row>
@@ -9494,7 +10234,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9691,6 +10431,154 @@
       <c r="G6" t="inlineStr">
         <is>
           <t>-3.500%</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2020-05-04</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>7.72</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>8.10</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>7.53</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>8.07</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8.00</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>-3.500%</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2020-05-05</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>7.72</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>8.10</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>7.53</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>8.07</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>8.00</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>-3.500%</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2020-05-06</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>7.86</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>7.92</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>7.56</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>7.64</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.72</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.814%</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2020-05-07</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>7.98</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>8.19</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>7.71</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>7.85</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.86</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.527%</t>
         </is>
       </c>
     </row>
@@ -9705,7 +10593,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9905,6 +10793,154 @@
         </is>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2020-05-04</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>9.12</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>9.34</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>8.79</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>9.11</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8.98</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.559%</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2020-05-05</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>9.12</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>9.34</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>8.79</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>9.11</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>8.98</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.559%</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2020-05-06</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>9.26</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>9.50</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>8.90</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>8.96</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>9.12</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.535%</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2020-05-07</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>9.43</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>9.70</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>9.03</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>9.26</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>9.26</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.836%</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/file/stock2.xlsx
+++ b/file/stock2.xlsx
@@ -366,7 +366,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G47"/>
+  <dimension ref="A1:G48"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="F39" sqref="F27:F39"/>
@@ -2063,6 +2063,43 @@
       <c r="G47" t="inlineStr">
         <is>
           <t>9.986%</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>2020-05-08</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>8.08</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>8.49</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>7.88</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>7.95</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>7.93</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>1.892%</t>
         </is>
       </c>
     </row>
@@ -2081,7 +2118,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2426,6 +2463,43 @@
       <c r="G10" t="inlineStr">
         <is>
           <t>0.748%</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2020-05-08</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>5.751%</t>
         </is>
       </c>
     </row>
@@ -2440,7 +2514,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2785,6 +2859,43 @@
       <c r="G10" t="inlineStr">
         <is>
           <t>-1.897%</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2020-05-08</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>9.00</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>9.15</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>8.71</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>8.83</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>8.79</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2.389%</t>
         </is>
       </c>
     </row>
@@ -2799,7 +2910,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H44"/>
+  <dimension ref="A1:H45"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="G33" sqref="G33"/>
@@ -4395,6 +4506,43 @@
       <c r="G44" t="inlineStr">
         <is>
           <t>-0.057%</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>2020-05-08</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>18.61</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>18.75</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>17.38</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>17.51</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>17.40</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>6.954%</t>
         </is>
       </c>
     </row>
@@ -9240,7 +9388,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="J9" sqref="J9"/>
@@ -10217,6 +10365,43 @@
       <c r="G27" t="inlineStr">
         <is>
           <t>0.778%</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>2020-05-08</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>10.19</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>10.54</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>10.01</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>10.20</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>10.37</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>-1.736%</t>
         </is>
       </c>
     </row>
@@ -10234,7 +10419,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10579,6 +10764,43 @@
       <c r="G10" t="inlineStr">
         <is>
           <t>1.527%</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2020-05-08</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>7.94</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>8.15</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>7.78</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>8.00</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7.98</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>-0.501%</t>
         </is>
       </c>
     </row>
@@ -10593,7 +10815,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10941,6 +11163,43 @@
         </is>
       </c>
     </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2020-05-08</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>9.25</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>9.51</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>9.08</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>9.32</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>9.43</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>-1.909%</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/file/stock2.xlsx
+++ b/file/stock2.xlsx
@@ -366,7 +366,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G48"/>
+  <dimension ref="A1:G50"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="F39" sqref="F27:F39"/>
@@ -2100,6 +2100,80 @@
       <c r="G48" t="inlineStr">
         <is>
           <t>1.892%</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>2020-05-11</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>8.11</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>8.25</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>7.78</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>8.00</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>8.08</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.371%</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>2020-05-12</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>8.33</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>8.48</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>7.99</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>8.09</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>8.11</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>2.713%</t>
         </is>
       </c>
     </row>
@@ -2118,7 +2192,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2500,6 +2574,80 @@
       <c r="G11" t="inlineStr">
         <is>
           <t>5.751%</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2020-05-11</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>6.27</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>5.439%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2020-05-12</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>5.89</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>-5.158%</t>
         </is>
       </c>
     </row>
@@ -2514,7 +2662,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2896,6 +3044,80 @@
       <c r="G11" t="inlineStr">
         <is>
           <t>2.389%</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2020-05-11</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>8.97</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>9.10</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>8.75</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>8.93</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>9.00</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>-0.333%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2020-05-12</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>9.11</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>9.16</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>8.80</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>8.90</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>8.97</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.561%</t>
         </is>
       </c>
     </row>
@@ -2910,7 +3132,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H45"/>
+  <dimension ref="A1:H47"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="G33" sqref="G33"/>
@@ -4543,6 +4765,80 @@
       <c r="G45" t="inlineStr">
         <is>
           <t>6.954%</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>2020-05-11</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>18.50</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>18.52</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>17.88</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>18.35</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>18.61</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>-0.591%</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>2020-05-12</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>18.29</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>18.78</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>18.16</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>18.33</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>18.50</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>-1.135%</t>
         </is>
       </c>
     </row>
@@ -9388,7 +9684,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="J9" sqref="J9"/>
@@ -10402,6 +10698,80 @@
       <c r="G28" t="inlineStr">
         <is>
           <t>-1.736%</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>2020-05-11</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>10.33</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>10.49</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>10.06</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>10.18</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>10.19</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>1.374%</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>2020-05-12</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>11.36</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>11.36</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>10.33</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>10.33</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>10.33</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>9.971%</t>
         </is>
       </c>
     </row>
@@ -10419,7 +10789,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10801,6 +11171,80 @@
       <c r="G11" t="inlineStr">
         <is>
           <t>-0.501%</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2020-05-11</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>8.08</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>8.25</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>7.90</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>7.96</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7.94</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.763%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2020-05-12</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>8.13</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>8.17</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>7.83</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>8.02</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>8.08</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.619%</t>
         </is>
       </c>
     </row>
@@ -10815,7 +11259,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11200,6 +11644,80 @@
         </is>
       </c>
     </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2020-05-11</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>9.60</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>9.60</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>9.15</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>9.30</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>9.25</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>3.784%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2020-05-12</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>10.17</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>10.45</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>9.47</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>9.57</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>9.60</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>5.938%</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/file/stock2.xlsx
+++ b/file/stock2.xlsx
@@ -366,7 +366,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G50"/>
+  <dimension ref="A1:G53"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="F39" sqref="F27:F39"/>
@@ -2174,6 +2174,117 @@
       <c r="G50" t="inlineStr">
         <is>
           <t>2.713%</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>2020-05-13</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>8.55</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>8.85</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>8.23</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>8.23</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>8.33</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>2.641%</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>2020-05-14</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>8.45</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>8.58</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>8.19</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>8.40</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>8.55</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>-1.170%</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>2020-05-15</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>8.46</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>8.80</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>8.40</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>8.44</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>8.45</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.118%</t>
         </is>
       </c>
     </row>
@@ -2192,7 +2303,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2648,6 +2759,117 @@
       <c r="G13" t="inlineStr">
         <is>
           <t>-5.158%</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2020-05-13</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>5.87</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>6.20</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>2.983%</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2020-05-14</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>6.31</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>5.89</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.87</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.511%</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2020-05-15</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>6.22</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>5.424%</t>
         </is>
       </c>
     </row>
@@ -2662,7 +2884,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3118,6 +3340,117 @@
       <c r="G13" t="inlineStr">
         <is>
           <t>1.561%</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2020-05-13</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>9.61</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>9.98</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>8.92</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>9.03</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>9.11</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>5.489%</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2020-05-14</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>9.34</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>9.67</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>9.33</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>9.50</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>9.61</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>-2.810%</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2020-05-15</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>9.12</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>9.41</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>9.10</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>9.28</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>9.34</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>-2.356%</t>
         </is>
       </c>
     </row>
@@ -3132,7 +3465,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H47"/>
+  <dimension ref="A1:H50"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="G33" sqref="G33"/>
@@ -4839,6 +5172,117 @@
       <c r="G47" t="inlineStr">
         <is>
           <t>-1.135%</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>2020-05-13</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>18.19</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>18.50</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>17.94</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>18.10</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>18.29</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>-0.547%</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>2020-05-14</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>18.60</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>18.77</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>17.81</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>18.15</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>18.19</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>2.254%</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>2020-05-15</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>18.13</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>18.58</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>18.03</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>18.50</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>18.60</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>-2.527%</t>
         </is>
       </c>
     </row>
@@ -9684,7 +10128,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="J9" sqref="J9"/>
@@ -10772,6 +11216,117 @@
       <c r="G30" t="inlineStr">
         <is>
           <t>9.971%</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>2020-05-13</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>11.08</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>11.78</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>10.90</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>11.60</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>11.36</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>-2.465%</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>2020-05-14</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>11.09</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>11.32</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>10.80</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>10.81</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>11.08</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.090%</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>2020-05-15</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>11.09</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>11.29</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>10.95</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>11.10</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>11.09</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.000%</t>
         </is>
       </c>
     </row>
@@ -10789,7 +11344,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11245,6 +11800,117 @@
       <c r="G13" t="inlineStr">
         <is>
           <t>0.619%</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2020-05-13</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>8.35</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>8.85</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>8.03</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>8.08</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>8.13</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>2.706%</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2020-05-14</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>8.51</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>8.74</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>8.20</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>8.24</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>8.35</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.916%</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2020-05-15</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>8.28</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>8.50</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>8.22</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>8.40</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>8.51</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>-2.703%</t>
         </is>
       </c>
     </row>
@@ -11259,7 +11925,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11718,6 +12384,117 @@
         </is>
       </c>
     </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2020-05-13</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>9.89</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>10.33</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>9.77</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>10.00</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>10.17</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>-2.753%</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2020-05-14</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>9.42</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>9.89</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>9.35</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>9.75</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>9.89</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>-4.752%</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2020-05-15</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>9.59</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>9.74</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>9.33</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>9.47</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>9.42</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.805%</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
